--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034054.098619896</v>
+        <v>974391.6413701129</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234577.7452053147</v>
+        <v>11664.41728937758</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10850698.87543052</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7817662.70596674</v>
+        <v>8693118.6549608</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5627323611424</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>215.4108546636942</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>136.2174501039859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.5627323611424</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>106.3795777640909</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.5627323611424</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>263.2420339516669</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>5.075623164876448</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>96.7368171366461</v>
       </c>
       <c r="V5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>125.638434068502</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>77.14804664098608</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.1565137023555</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>276.1565137023555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>186.8263134241148</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>94.25736106477147</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>11.39108932486009</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>334.1169017826961</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>46.3645206679393</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>167.9234023397769</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>19.60191739842435</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0237825764897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>290.5286403308939</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>87.20030285819837</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.649397541111</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>284.5615160058697</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.1498336210772</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6043685446848</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>85.63764527868189</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>15.5159980612134</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.0800308968884</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>8.777525990011053</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>92.00803688215807</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>311.4936872159403</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.379535831463159</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>47.86017852792593</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>365.0416875568612</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>81.25819606329402</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>355.546756558266</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>37.06286729089747</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>253.6915800531447</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>12.60471623380398</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>254.7848454013382</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>5.176928316107505</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.1848034624637</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C2" t="n">
-        <v>484.1848034624637</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D2" t="n">
-        <v>484.1848034624637</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>484.1848034624637</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>237.1517404714108</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>19.56501858889139</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>978.2509294445696</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>978.2509294445696</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>978.2509294445696</v>
+        <v>2328.349529919466</v>
       </c>
       <c r="U2" t="n">
-        <v>978.2509294445696</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="V2" t="n">
-        <v>978.2509294445696</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="W2" t="n">
-        <v>731.2178664535166</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X2" t="n">
-        <v>731.2178664535166</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y2" t="n">
-        <v>484.1848034624637</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.56501858889139</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>19.56501858889139</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>19.56501858889139</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>19.56501858889139</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>19.56501858889139</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>19.56501858889139</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>144.9225786467288</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>376.5843244839898</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>618.7014295215208</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>736.1338244070387</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>978.2509294445696</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P3" t="n">
-        <v>978.2509294445696</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q3" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445696</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>870.7968104909424</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>870.7968104909424</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>642.5737173649663</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>642.5737173649663</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>395.5406543739134</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>395.5406543739134</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.7803556089594</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>47.85425064936706</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863014</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>19.56501858889139</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>19.56501858889139</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>19.56501858889139</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.2257840993611</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>296.2257840993611</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>296.2257840993611</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>296.2257840993611</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>296.2257840993611</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>30.32473970373792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806668</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806668</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>828.0278728906073</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>828.0278728906073</v>
+        <v>2368.228957159203</v>
       </c>
       <c r="V5" t="n">
-        <v>562.1268284949842</v>
+        <v>2368.228957159203</v>
       </c>
       <c r="W5" t="n">
-        <v>562.1268284949842</v>
+        <v>2015.460301889088</v>
       </c>
       <c r="X5" t="n">
-        <v>562.1268284949842</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y5" t="n">
-        <v>562.1268284949842</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.05936271613335</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613335</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613335</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683216</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>24.95018035683216</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>265.5537082516947</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>526.1633218638449</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>609.9115941008246</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>870.3246581933167</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806668</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>926.0606266465645</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>926.0606266465645</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>690.9085184148217</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>436.6711616866201</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8196614810873</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.05936271613335</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.98668255551324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613335</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613335</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579.9844679696339</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>579.9844679696339</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>579.9844679696339</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>579.9844679696339</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>301.0384945329112</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>301.0384945329112</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09252109618843</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438683</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>344.9085595412869</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>586.3582880173956</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>817.0829279823542</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>989.7620250901066</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1099.465256491931</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>858.9304414063566</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>858.9304414063566</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>651.2519730171373</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>476.7989437360102</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>327.864534074759</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>168.6270790693035</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>22.09252109618844</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>22.09252109618844</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>22.09252109618844</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>28.39914141318535</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>165.799003153448</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>411.954469746149</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>411.954469746149</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>562.3310704112777</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>828.8278839945615</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>1025.71200399185</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>1104.626054809422</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>1008.180757940352</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>1008.180757940352</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>1008.180757940352</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>1008.180757940352</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1008.180757940352</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1008.180757940352</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1008.180757940352</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>819.4673100372054</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>22.09252109618844</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D10" t="n">
-        <v>22.09252109618844</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E10" t="n">
-        <v>22.09252109618844</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>22.09252109618844</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09252109618844</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09252109618844</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09252109618844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>22.09252109618844</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>58.70189726492715</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6904745160687</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>160.9488293168851</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>194.1252445754623</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9927170031359</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>117.3019767171697</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.09252109618844</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.109828622464</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C11" t="n">
-        <v>546.109828622464</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>546.109828622464</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>546.109828622464</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>546.109828622464</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424003</v>
@@ -5123,22 +5123,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5159,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.59950625323012</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C13" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D13" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E13" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F13" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.59950625323012</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>609.3508327416157</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C14" t="n">
-        <v>609.3508327416157</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D14" t="n">
-        <v>609.3508327416157</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E14" t="n">
-        <v>223.5625801433715</v>
+        <v>902.6926112758501</v>
       </c>
       <c r="F14" t="n">
-        <v>223.5625801433715</v>
+        <v>491.7067064862426</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>73.74289838442945</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2112.324418312743</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.555763042629</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X14" t="n">
-        <v>1386.090004781549</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y14" t="n">
-        <v>995.9506728057374</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="15">
@@ -5342,13 +5342,13 @@
         <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5360,7 +5360,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
         <v>670.8219208598708</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1194.175505447095</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C17" t="n">
-        <v>1194.175505447095</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.175505447095</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E17" t="n">
-        <v>808.3872528488505</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F17" t="n">
-        <v>397.4013480592429</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>347.4062548818736</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5554,13 +5554,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1970.914677487028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.775345511217</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5597,19 +5597,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2291.509718890064</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
         <v>2627.754532504893</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1133.649772640952</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>747.8615200427075</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>336.8756152531</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2609.067977020042</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2355.306191658134</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2567.064746875</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2567.064746875</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="V22" t="n">
-        <v>2312.380258669114</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755379</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082163</v>
+        <v>1268.452009733665</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>882.6637571354211</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1696.62143709608</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="C26" t="n">
-        <v>1696.62143709608</v>
+        <v>1215.881273373639</v>
       </c>
       <c r="D26" t="n">
-        <v>1338.355738489329</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
@@ -6232,7 +6232,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2083.221277160202</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W26" t="n">
-        <v>2083.221277160202</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X26" t="n">
-        <v>2083.221277160202</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2083.221277160202</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>396.3638799638588</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>2567.064746875001</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1752.280010459091</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6560,7 +6560,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D31" t="n">
-        <v>2179.742370083244</v>
+        <v>578.0123447940986</v>
       </c>
       <c r="E31" t="n">
-        <v>2031.829276500851</v>
+        <v>430.0992512117055</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137951</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2310.549250954101</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C32" t="n">
-        <v>1941.586734013689</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>1583.321035406939</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>1197.532782808694</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>786.546878019087</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>368.5830699172739</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X32" t="n">
-        <v>2697.149091018223</v>
+        <v>2361.662430107517</v>
       </c>
       <c r="Y32" t="n">
-        <v>2697.149091018223</v>
+        <v>1971.523098131706</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1160.852583904132</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C35" t="n">
-        <v>1160.852583904132</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D35" t="n">
-        <v>1160.852583904132</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>1160.852583904132</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>749.8666791145245</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1937.591755944065</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y35" t="n">
-        <v>1547.452423968254</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>2547.032451605887</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E37" t="n">
-        <v>2399.119358023494</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F37" t="n">
-        <v>2399.119358023494</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G37" t="n">
-        <v>2317.040372100975</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1937.083492693021</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C38" t="n">
-        <v>1568.120975752609</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D38" t="n">
-        <v>1209.855277145859</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>824.0670245476144</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>413.0811197580069</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y38" t="n">
-        <v>2323.683332757143</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
@@ -7271,31 +7271,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>2504.955764169438</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U40" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.952954307291</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.952954307291</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7450,13 +7450,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287636</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>66.67501842016645</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>722.2873163082934</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>311.3014115186858</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733127</v>
@@ -7666,10 +7666,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7724,46 +7724,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>722.8997636851137</v>
       </c>
       <c r="U46" t="n">
-        <v>598.044640063212</v>
+        <v>722.8997636851137</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>722.8997636851137</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>722.8997636851137</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>494.9102127870964</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>386.6967662831607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>249.9602927757756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>387.1589768055868</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>405.3760678736852</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>215.9359264641209</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>283.237268310736</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,25 +22552,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>162.313313380569</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>199.8771135533776</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>80.23087025367187</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>65.15681211943676</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.132250799777211</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457181</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>39.91394168141608</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521645</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>333.4516983260019</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>154.4873503716432</v>
       </c>
       <c r="V5" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>74.32677294057284</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>98.27937439571028</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.5773279611251</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>130.719532039356</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.1619485273195</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
-        <v>61.87643319194535</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>126.4924434094344</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.85638235318956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>75.23878421646987</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
-        <v>14.932250645712</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>80.19643759900795</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>222.9160118599466</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3155846423218</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.3930806959349</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>35.61419889577297</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>172.2201326841555</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>245.860767681018</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>304.3208553659328</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>33.3941324334632</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>129.2480174994594</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,13 +24180,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>96.2516047562944</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>85.19271039829701</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.2266482006004367</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24265,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>85.16958467259929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>1.885271837007082</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.07867307599815376</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>242.114613191453</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>130.9179645853558</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401879</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.1928608741192</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,7 +24733,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.6435220329202</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963708</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>12.42908554841688</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24976,16 +24976,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>365.3515648470059</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>97.56086949500531</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>48.74248246393381</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,13 +25213,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>86.05160619575689</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>58.23741346252899</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>290.6893911792374</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>128.2387900191171</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>122.3609055585342</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>158.9993246194568</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25918,16 +25918,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853699</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>219.8581771419768</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>435032.507042336</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>450684.3915209943</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>460672.7660746931</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409704</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409704</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150588.1755146547</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="C2" t="n">
-        <v>156006.135526498</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="D2" t="n">
-        <v>159463.6497950859</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="E2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="F2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141817</v>
@@ -26346,13 +26346,13 @@
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85498.77860120904</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189539</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14295.33970214117</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>394217.2929137604</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589874</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750077</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3268.538594581557</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99215.77767884448</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2467736288815</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>196.6176664714449</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>206.5374179011836</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26459,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>51181.37951678014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26490,19 +26490,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="L5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16330.04580118666</v>
+        <v>-419171.1305086513</v>
       </c>
       <c r="C6" t="n">
-        <v>82029.77027129776</v>
+        <v>170796.7487058932</v>
       </c>
       <c r="D6" t="n">
-        <v>93780.39315826338</v>
+        <v>170796.7487058932</v>
       </c>
       <c r="E6" t="n">
-        <v>-183724.5304620479</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="F6" t="n">
-        <v>210492.7624517123</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="G6" t="n">
-        <v>210492.7624517126</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="H6" t="n">
-        <v>210492.7624517124</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="I6" t="n">
-        <v>210492.7624517124</v>
+        <v>204424.3487058933</v>
       </c>
       <c r="J6" t="n">
-        <v>146504.3909058138</v>
+        <v>28001.12951330032</v>
       </c>
       <c r="K6" t="n">
-        <v>205685.3079599623</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="L6" t="n">
-        <v>207224.2238571309</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="M6" t="n">
-        <v>111276.984772868</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="N6" t="n">
-        <v>210492.7624517124</v>
+        <v>204424.3487058932</v>
       </c>
       <c r="O6" t="n">
-        <v>210492.7624517126</v>
+        <v>204424.3487058934</v>
       </c>
       <c r="P6" t="n">
-        <v>210492.7624517125</v>
+        <v>204424.3487058934</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912534</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26773,10 +26773,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="O3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170867</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>276.1565137023555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26810,19 +26810,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.00787803233573</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342.7224034979613</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052437</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068871</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>177.5954266578336</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104034</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155792</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>1.441855221466301</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>5.427767452760121</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470703</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677233</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840335</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081218</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411507</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796964</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870382</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847513</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626981</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>0.727517133052019</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727679</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779992</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335885</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358774</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9226257568905</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650264</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164379</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263572</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504677</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497753</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623707</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>4.46492368217439</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170849</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894687</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>9.899534402948822</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394054</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179689</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938415</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587927</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390064</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457197</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31858,10 +31858,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32080,10 +32080,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L15" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32317,7 +32317,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32332,7 +32332,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
         <v>193.3156655923047</v>
@@ -32572,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33025,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33280,7 +33280,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33502,7 +33502,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33520,7 +33520,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33663,7 +33663,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M35" t="n">
         <v>266.6471645405367</v>
@@ -33751,13 +33751,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34222,28 +34222,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34468,7 +34468,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034983</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9342716247019</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>234.0017634719808</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>244.5627323611424</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6185806924423</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>428.8615014901187</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988702</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604673</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516669</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>84.59421438078756</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833254</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>121.9644487350302</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>204.1123577751702</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>243.8886146223321</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>233.0551918837966</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>174.4233304118708</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>110.8113448503282</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.212927593424832</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.7877391315785</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>248.6418854471727</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>151.8955562274027</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>269.1887005891756</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>198.8728484821096</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.71116244199196</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>36.97916784721082</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>49.48341136478941</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>53.79631798062265</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>33.51153056421936</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831903</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35506,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35965,7 +35965,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>242.1053372686586</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35980,7 +35980,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M35" t="n">
         <v>485.8144648060965</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>974391.6413701129</v>
+        <v>1026554.376270009</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11664.41728937758</v>
+        <v>183061.5242639362</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728813</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8693118.6549608</v>
+        <v>7817662.705966741</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>215.4108546636942</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>136.2174501039859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61.4222199825084</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>67.13977621048076</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.7368171366461</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>227.766483451776</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.2420339516669</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>105.4732938017624</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>46.00901848799826</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>10.52429365287424</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>334.1169017826961</v>
+        <v>268.6375781801351</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.3645206679393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>91.24097889302404</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>19.60191739842435</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,7 +1779,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>290.5286403308939</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.4923106593519</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I18" t="n">
         <v>61.42221998250818</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>226.9736586744963</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>87.20030285819837</v>
+        <v>83.6962058656255</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>92.00803688215794</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.649397541111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>170.1519553773886</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>130.9059496574382</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6043685446848</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>15.5159980612134</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>88.83490402252897</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.0800308968884</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>152.4339182502478</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>92.00803688215807</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>171.0945107152677</v>
       </c>
       <c r="X32" t="n">
-        <v>4.379535831463159</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>47.86017852792593</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>92.00803688215794</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>90.97242552187876</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>339.0399185806816</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>92.00803688215797</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>208.9978294690247</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>240.2365575466769</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>37.06286729089747</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>92.00803688215818</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>204.853675104788</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>106.4853254097427</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>253.6915800531447</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>12.60471623380398</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>153.7066665474637</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>254.7848454013382</v>
+        <v>327.9428964074131</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.2999740033912</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.176928316107505</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>484.1848034624637</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>2328.349529919466</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>2074.587744557557</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>2074.587744557557</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W2" t="n">
-        <v>1721.819089287443</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X2" t="n">
-        <v>1721.819089287443</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>731.2178664535166</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673426</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>862.0818176160244</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890065</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504894</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>750.0278363185935</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>682.2098805504311</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>435.1768175593782</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>227.3253173538453</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240418</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240418</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240418</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240418</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240418</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U5" t="n">
-        <v>2368.228957159203</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.228957159203</v>
+        <v>822.9009808048736</v>
       </c>
       <c r="W5" t="n">
-        <v>2015.460301889088</v>
+        <v>822.9009808048736</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.994543628009</v>
+        <v>556.9999364092505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.855211652197</v>
+        <v>291.0988920136273</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>398.824578434775</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>545.9211792298065</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>794.6745933137688</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>589.5956988171297</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>335.3583420889281</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>275.6855924150208</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>275.6855924150208</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>153.7567014710228</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>399.9121680637238</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>376.3873778342574</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>168.6270790693035</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C10" t="n">
-        <v>635.1915732143555</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1251.855211652197</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W11" t="n">
-        <v>2366.086203674652</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X11" t="n">
-        <v>2028.59438369213</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="Y11" t="n">
-        <v>1638.455051716319</v>
+        <v>1369.426717132083</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5135,28 +5135,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>222.942782082032</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D13" t="n">
-        <v>222.942782082032</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E13" t="n">
-        <v>222.942782082032</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F13" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5238,13 +5238,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.878965009939</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1646.746562480845</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C14" t="n">
-        <v>1646.746562480845</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>1288.480863874094</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>902.6926112758501</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>491.7067064862426</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>73.74289838442945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5314,16 +5314,16 @@
         <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520778</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.485734520778</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X14" t="n">
-        <v>2423.485734520778</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.346402544967</v>
+        <v>1702.283515201396</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5357,43 +5357,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C16" t="n">
-        <v>559.1928012785273</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D16" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E16" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036445</v>
@@ -5475,13 +5475,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C17" t="n">
-        <v>1920.409918978289</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1562.144220371538</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1176.355967773294</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>765.3700629836867</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>347.4062548818736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5576,19 +5576,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5612,7 +5612,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5706,10 +5706,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W19" t="n">
         <v>498.8626623130036</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2609.067977020042</v>
+        <v>2612.607468931732</v>
       </c>
       <c r="U20" t="n">
-        <v>2355.306191658134</v>
+        <v>2358.845683569823</v>
       </c>
       <c r="V20" t="n">
-        <v>2024.243304314563</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="W20" t="n">
-        <v>2024.243304314563</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="X20" t="n">
-        <v>2024.243304314563</v>
+        <v>2027.782796226253</v>
       </c>
       <c r="Y20" t="n">
-        <v>2024.243304314563</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5846,28 +5846,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>525.0086166875648</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1626.717708340416</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C23" t="n">
-        <v>1626.717708340416</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.452009733665</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E23" t="n">
-        <v>882.6637571354211</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.317548404538</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y23" t="n">
-        <v>2013.317548404538</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6074,19 +6074,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6183,16 +6183,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1215.881273373639</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C26" t="n">
-        <v>1215.881273373639</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D26" t="n">
-        <v>857.6950425204218</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224076</v>
@@ -6238,40 +6238,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>2366.086203674652</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>1992.620445413572</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y26" t="n">
-        <v>1602.481113437761</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>546.4805193761946</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C28" t="n">
-        <v>546.4805193761946</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>396.3638799638588</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1752.280010459091</v>
+        <v>1353.10866026757</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>984.1461433271581</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>625.8804447204077</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>2478.514423990286</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W29" t="n">
-        <v>2125.745768720171</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X29" t="n">
-        <v>1752.280010459091</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1752.280010459091</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940986</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E31" t="n">
-        <v>430.0992512117055</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F31" t="n">
-        <v>283.2093037137951</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G31" t="n">
-        <v>283.2093037137951</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.923258067584</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6703,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W32" t="n">
-        <v>2366.086203674652</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X32" t="n">
-        <v>2361.662430107517</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y32" t="n">
-        <v>1971.523098131706</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="33">
@@ -6794,10 +6794,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D34" t="n">
-        <v>396.3638799638587</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E34" t="n">
-        <v>396.3638799638587</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F34" t="n">
-        <v>348.0202652891861</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H34" t="n">
         <v>190.2718927217162</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1577.945354755378</v>
+        <v>1258.850788876759</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>889.8882719363478</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>531.6225733295973</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>145.8343207313531</v>
       </c>
       <c r="F35" t="n">
         <v>53.94298182036445</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X35" t="n">
-        <v>2354.684526795312</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y35" t="n">
-        <v>1964.5451948195</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="D37" t="n">
-        <v>578.0123447940985</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="E37" t="n">
-        <v>430.0992512117053</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F37" t="n">
-        <v>283.209303713795</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G37" t="n">
-        <v>283.209303713795</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
         <v>190.2718927217162</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508537</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1995.909162857192</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="E38" t="n">
         <v>882.8926947117852</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2386.048494833003</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>2386.048494833003</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X38" t="n">
-        <v>2386.048494833003</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y38" t="n">
-        <v>1995.909162857192</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="39">
@@ -7229,73 +7229,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117056</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F40" t="n">
-        <v>283.2093037137952</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1139.146815977588</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C41" t="n">
-        <v>1139.146815977588</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D41" t="n">
-        <v>1139.146815977588</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
         <v>882.8926947117852</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W41" t="n">
-        <v>2289.351746278601</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.885988017521</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y41" t="n">
-        <v>1525.74665604171</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="42">
@@ -7505,10 +7505,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F43" t="n">
-        <v>224.4233909876363</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G43" t="n">
-        <v>224.4233909876363</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.67501842016645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V43" t="n">
-        <v>513.8405610245969</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.4233909876363</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>722.2873163082934</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="C44" t="n">
-        <v>722.2873163082934</v>
+        <v>743.4641313436939</v>
       </c>
       <c r="D44" t="n">
-        <v>722.2873163082934</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="E44" t="n">
-        <v>722.2873163082934</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="F44" t="n">
-        <v>311.3014115186858</v>
+        <v>385.1984327369434</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733127</v>
@@ -7666,10 +7666,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7678,7 +7678,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U44" t="n">
         <v>2169.72394915887</v>
@@ -7690,10 +7690,10 @@
         <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>1112.426648284105</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y44" t="n">
-        <v>722.2873163082934</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7724,46 +7724,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>494.9102127870964</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C46" t="n">
-        <v>494.9102127870964</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D46" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>722.8997636851137</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>722.8997636851137</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>722.8997636851137</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W46" t="n">
-        <v>722.8997636851137</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X46" t="n">
-        <v>494.9102127870964</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y46" t="n">
-        <v>494.9102127870964</v>
+        <v>438.9553738610023</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>386.6967662831607</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>375.9044444444757</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>259.9387816449951</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>279.9241371288197</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>385.9046936847717</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5195154085676</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>80.23087025367187</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>165.6608109389445</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>53.97620323457181</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>115.0560776587299</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>154.4873503716432</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>99.98577501835894</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.9959047043867</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>100.2996914017151</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>65.87458628206193</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>292.0239284063026</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.2486915506032</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23181,31 +23181,31 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>75.23878421646987</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>50.57846144115925</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>35.61419889577297</v>
+        <v>101.093522498334</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.23878421646987</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>45.199959188537</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>172.2201326841555</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>291.4928627704566</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>304.3208553659328</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23554,7 +23554,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>33.3941324334632</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.2387900191172</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>59.30821556748145</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>59.54933966209472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>129.2480174994594</v>
+        <v>132.7521144920323</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963721</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>85.19271039829701</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2266482006004367</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>179.0890133400244</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24369,10 +24369,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24423,10 +24423,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>16.63754732114123</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>251.8278920060424</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07867307599815376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,13 +24499,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9179645853558</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>136.2002014355553</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.1928608741192</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>229.496451822014</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>64.16285195963708</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>75.30176537689297</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>178.1464580021453</v>
       </c>
       <c r="X32" t="n">
-        <v>365.3515648470059</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,22 +25083,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>97.56086949500531</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.16285195963721</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>315.9036202198326</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>30.69118209778748</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>64.16285195963718</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25371,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>43.13981385480332</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>141.6938125255849</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>290.6893911792374</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>64.16285195963697</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>7.291863845230949</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>276.2485162537379</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>128.2387900191171</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,13 +25684,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>122.3609055585342</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>71.32843891062055</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,19 +25867,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>158.9993246194568</v>
+        <v>85.84127361338187</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.5320061785461</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>219.8581771419768</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751796.7860409701</v>
+        <v>435032.5070423359</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751796.7860409701</v>
+        <v>450684.3915209944</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751796.7860409701</v>
+        <v>460672.766074693</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751796.7860409704</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751796.7860409704</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>260237.3490141817</v>
+        <v>150588.1755146547</v>
       </c>
       <c r="C2" t="n">
-        <v>260237.3490141816</v>
+        <v>156006.1355264979</v>
       </c>
       <c r="D2" t="n">
-        <v>260237.3490141816</v>
+        <v>159463.6497950858</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141816</v>
@@ -26334,25 +26334,25 @@
         <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="J2" t="n">
+        <v>260237.3490141816</v>
+      </c>
+      <c r="K2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="J2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="K2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="M2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141818</v>
       </c>
       <c r="N2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
         <v>260237.3490141817</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214116</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.454491750106</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.1084990597035</v>
+        <v>182.2467736288815</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>196.6176664714449</v>
       </c>
       <c r="D4" t="n">
-        <v>513.1084990597035</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26493,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419171.1305086513</v>
+        <v>15114.04235160737</v>
       </c>
       <c r="C6" t="n">
-        <v>170796.7487058932</v>
+        <v>80843.86659956195</v>
       </c>
       <c r="D6" t="n">
-        <v>170796.7487058932</v>
+        <v>92613.6978991309</v>
       </c>
       <c r="E6" t="n">
-        <v>204424.3487058932</v>
+        <v>-184331.3718366299</v>
       </c>
       <c r="F6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="G6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="H6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="I6" t="n">
-        <v>204424.3487058933</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="J6" t="n">
-        <v>28001.12951330032</v>
+        <v>145897.5495312318</v>
       </c>
       <c r="K6" t="n">
-        <v>204424.3487058932</v>
+        <v>205078.4665853805</v>
       </c>
       <c r="L6" t="n">
-        <v>204424.3487058932</v>
+        <v>206617.382482549</v>
       </c>
       <c r="M6" t="n">
-        <v>204424.3487058932</v>
+        <v>110670.1433982862</v>
       </c>
       <c r="N6" t="n">
-        <v>204424.3487058932</v>
+        <v>209885.9210771305</v>
       </c>
       <c r="O6" t="n">
-        <v>204424.3487058934</v>
+        <v>209885.9210771306</v>
       </c>
       <c r="P6" t="n">
-        <v>204424.3487058934</v>
+        <v>209885.9210771306</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26773,13 +26773,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26810,13 +26810,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233572</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>177.5954266578336</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423951</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31855,13 +31855,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P12" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -32077,10 +32077,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32098,7 +32098,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034982</v>
@@ -32332,10 +32332,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
@@ -32566,25 +32566,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M24" t="n">
         <v>205.8702969983122</v>
@@ -32809,19 +32809,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33037,7 +33037,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
@@ -33046,19 +33046,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33514,25 +33514,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P33" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33663,7 +33663,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
         <v>266.6471645405367</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33757,19 +33757,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,22 +34067,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34225,13 +34225,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34365,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34392,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34541,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8615014901187</v>
+        <v>117.3425372005507</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>148.5824250454864</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>243.7706597627534</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P12" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,7 +36925,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
         <v>485.8144648060965</v>
@@ -37320,7 +37320,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
